--- a/data/c19stats-ac-rohdaten.xlsx
+++ b/data/c19stats-ac-rohdaten.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="14">
   <si>
     <t>Uhrzeit</t>
   </si>
@@ -53,6 +53,9 @@
   </si>
   <si>
     <t>10:45:00</t>
+  </si>
+  <si>
+    <t>11:45:00</t>
   </si>
 </sst>
 </file>
@@ -416,7 +419,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G114"/>
+  <dimension ref="A1:G115"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -3044,6 +3047,29 @@
         <v>82</v>
       </c>
     </row>
+    <row r="115" spans="1:7">
+      <c r="A115" s="2">
+        <v>44053</v>
+      </c>
+      <c r="B115" t="s">
+        <v>13</v>
+      </c>
+      <c r="C115">
+        <v>2170</v>
+      </c>
+      <c r="D115">
+        <v>1068</v>
+      </c>
+      <c r="E115">
+        <v>100</v>
+      </c>
+      <c r="F115">
+        <v>1999</v>
+      </c>
+      <c r="G115">
+        <v>71</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/c19stats-ac-rohdaten.xlsx
+++ b/data/c19stats-ac-rohdaten.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="121" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="14">
   <si>
     <t>Uhrzeit</t>
   </si>
@@ -419,7 +419,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G115"/>
+  <dimension ref="A1:G117"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -3070,6 +3070,52 @@
         <v>71</v>
       </c>
     </row>
+    <row r="116" spans="1:7">
+      <c r="A116" s="2">
+        <v>44055</v>
+      </c>
+      <c r="B116" t="s">
+        <v>7</v>
+      </c>
+      <c r="C116">
+        <v>2181</v>
+      </c>
+      <c r="D116">
+        <v>1070</v>
+      </c>
+      <c r="E116">
+        <v>101</v>
+      </c>
+      <c r="F116">
+        <v>2008</v>
+      </c>
+      <c r="G116">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="117" spans="1:7">
+      <c r="A117" s="2">
+        <v>44057</v>
+      </c>
+      <c r="B117" t="s">
+        <v>9</v>
+      </c>
+      <c r="C117">
+        <v>2212</v>
+      </c>
+      <c r="D117">
+        <v>1088</v>
+      </c>
+      <c r="E117">
+        <v>101</v>
+      </c>
+      <c r="F117">
+        <v>2028</v>
+      </c>
+      <c r="G117">
+        <v>83</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/c19stats-ac-rohdaten.xlsx
+++ b/data/c19stats-ac-rohdaten.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="14">
   <si>
     <t>Uhrzeit</t>
   </si>
@@ -419,7 +419,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G117"/>
+  <dimension ref="A1:G118"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -3116,6 +3116,29 @@
         <v>83</v>
       </c>
     </row>
+    <row r="118" spans="1:7">
+      <c r="A118" s="2">
+        <v>44060</v>
+      </c>
+      <c r="B118" t="s">
+        <v>12</v>
+      </c>
+      <c r="C118">
+        <v>2232</v>
+      </c>
+      <c r="D118">
+        <v>1093</v>
+      </c>
+      <c r="E118">
+        <v>101</v>
+      </c>
+      <c r="F118">
+        <v>2053</v>
+      </c>
+      <c r="G118">
+        <v>78</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/c19stats-ac-rohdaten.xlsx
+++ b/data/c19stats-ac-rohdaten.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="124" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="19">
   <si>
     <t>Uhrzeit</t>
   </si>
@@ -56,6 +56,21 @@
   </si>
   <si>
     <t>11:45:00</t>
+  </si>
+  <si>
+    <t>11:00:00</t>
+  </si>
+  <si>
+    <t>09:00:00</t>
+  </si>
+  <si>
+    <t>09:15:00</t>
+  </si>
+  <si>
+    <t>11:30:00</t>
+  </si>
+  <si>
+    <t>08:45:00</t>
   </si>
 </sst>
 </file>
@@ -419,7 +434,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G118"/>
+  <dimension ref="A1:G146"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -3139,6 +3154,650 @@
         <v>78</v>
       </c>
     </row>
+    <row r="119" spans="1:7">
+      <c r="A119" s="2">
+        <v>44061</v>
+      </c>
+      <c r="B119" t="s">
+        <v>14</v>
+      </c>
+      <c r="C119">
+        <v>2248</v>
+      </c>
+      <c r="D119">
+        <v>1102</v>
+      </c>
+      <c r="E119">
+        <v>101</v>
+      </c>
+      <c r="F119">
+        <v>2062</v>
+      </c>
+      <c r="G119">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="120" spans="1:7">
+      <c r="A120" s="2">
+        <v>44062</v>
+      </c>
+      <c r="B120" t="s">
+        <v>14</v>
+      </c>
+      <c r="C120">
+        <v>2261</v>
+      </c>
+      <c r="D120">
+        <v>1106</v>
+      </c>
+      <c r="E120">
+        <v>102</v>
+      </c>
+      <c r="F120">
+        <v>2074</v>
+      </c>
+      <c r="G120">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="121" spans="1:7">
+      <c r="A121" s="2">
+        <v>44063</v>
+      </c>
+      <c r="B121" t="s">
+        <v>8</v>
+      </c>
+      <c r="C121">
+        <v>2274</v>
+      </c>
+      <c r="D121">
+        <v>1112</v>
+      </c>
+      <c r="E121">
+        <v>102</v>
+      </c>
+      <c r="F121">
+        <v>2077</v>
+      </c>
+      <c r="G121">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="122" spans="1:7">
+      <c r="A122" s="2">
+        <v>44064</v>
+      </c>
+      <c r="B122" t="s">
+        <v>15</v>
+      </c>
+      <c r="C122">
+        <v>2281</v>
+      </c>
+      <c r="D122">
+        <v>1114</v>
+      </c>
+      <c r="E122">
+        <v>102</v>
+      </c>
+      <c r="F122">
+        <v>2087</v>
+      </c>
+      <c r="G122">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="123" spans="1:7">
+      <c r="A123" s="2">
+        <v>44067</v>
+      </c>
+      <c r="B123" t="s">
+        <v>9</v>
+      </c>
+      <c r="C123">
+        <v>2311</v>
+      </c>
+      <c r="D123">
+        <v>1126</v>
+      </c>
+      <c r="E123">
+        <v>102</v>
+      </c>
+      <c r="F123">
+        <v>2120</v>
+      </c>
+      <c r="G123">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="124" spans="1:7">
+      <c r="A124" s="2">
+        <v>44068</v>
+      </c>
+      <c r="B124" t="s">
+        <v>8</v>
+      </c>
+      <c r="C124">
+        <v>2316</v>
+      </c>
+      <c r="D124">
+        <v>1128</v>
+      </c>
+      <c r="E124">
+        <v>102</v>
+      </c>
+      <c r="F124">
+        <v>2143</v>
+      </c>
+      <c r="G124">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="125" spans="1:7">
+      <c r="A125" s="2">
+        <v>44069</v>
+      </c>
+      <c r="B125" t="s">
+        <v>8</v>
+      </c>
+      <c r="C125">
+        <v>2324</v>
+      </c>
+      <c r="D125">
+        <v>1131</v>
+      </c>
+      <c r="E125">
+        <v>102</v>
+      </c>
+      <c r="F125">
+        <v>2149</v>
+      </c>
+      <c r="G125">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="126" spans="1:7">
+      <c r="A126" s="2">
+        <v>44070</v>
+      </c>
+      <c r="B126" t="s">
+        <v>16</v>
+      </c>
+      <c r="C126">
+        <v>2333</v>
+      </c>
+      <c r="D126">
+        <v>1136</v>
+      </c>
+      <c r="E126">
+        <v>102</v>
+      </c>
+      <c r="F126">
+        <v>2156</v>
+      </c>
+      <c r="G126">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="127" spans="1:7">
+      <c r="A127" s="2">
+        <v>44071</v>
+      </c>
+      <c r="B127" t="s">
+        <v>9</v>
+      </c>
+      <c r="C127">
+        <v>2348</v>
+      </c>
+      <c r="D127">
+        <v>1140</v>
+      </c>
+      <c r="E127">
+        <v>102</v>
+      </c>
+      <c r="F127">
+        <v>2163</v>
+      </c>
+      <c r="G127">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="128" spans="1:7">
+      <c r="A128" s="2">
+        <v>44074</v>
+      </c>
+      <c r="B128" t="s">
+        <v>11</v>
+      </c>
+      <c r="C128">
+        <v>2353</v>
+      </c>
+      <c r="D128">
+        <v>1144</v>
+      </c>
+      <c r="E128">
+        <v>102</v>
+      </c>
+      <c r="F128">
+        <v>2193</v>
+      </c>
+      <c r="G128">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="129" spans="1:7">
+      <c r="A129" s="2">
+        <v>44075</v>
+      </c>
+      <c r="B129" t="s">
+        <v>16</v>
+      </c>
+      <c r="C129">
+        <v>2363</v>
+      </c>
+      <c r="D129">
+        <v>1149</v>
+      </c>
+      <c r="E129">
+        <v>103</v>
+      </c>
+      <c r="F129">
+        <v>2203</v>
+      </c>
+      <c r="G129">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="130" spans="1:7">
+      <c r="A130" s="2">
+        <v>44076</v>
+      </c>
+      <c r="B130" t="s">
+        <v>17</v>
+      </c>
+      <c r="C130">
+        <v>2370</v>
+      </c>
+      <c r="D130">
+        <v>1151</v>
+      </c>
+      <c r="E130">
+        <v>103</v>
+      </c>
+      <c r="F130">
+        <v>2216</v>
+      </c>
+      <c r="G130">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="131" spans="1:7">
+      <c r="A131" s="2">
+        <v>44077</v>
+      </c>
+      <c r="B131" t="s">
+        <v>16</v>
+      </c>
+      <c r="C131">
+        <v>2378</v>
+      </c>
+      <c r="D131">
+        <v>1157</v>
+      </c>
+      <c r="E131">
+        <v>103</v>
+      </c>
+      <c r="F131">
+        <v>2224</v>
+      </c>
+      <c r="G131">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="132" spans="1:7">
+      <c r="A132" s="2">
+        <v>44078</v>
+      </c>
+      <c r="B132" t="s">
+        <v>11</v>
+      </c>
+      <c r="C132">
+        <v>2384</v>
+      </c>
+      <c r="D132">
+        <v>1161</v>
+      </c>
+      <c r="E132">
+        <v>103</v>
+      </c>
+      <c r="F132">
+        <v>2235</v>
+      </c>
+      <c r="G132">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="133" spans="1:7">
+      <c r="A133" s="2">
+        <v>44081</v>
+      </c>
+      <c r="B133" t="s">
+        <v>11</v>
+      </c>
+      <c r="C133">
+        <v>2389</v>
+      </c>
+      <c r="D133">
+        <v>1164</v>
+      </c>
+      <c r="E133">
+        <v>103</v>
+      </c>
+      <c r="F133">
+        <v>2247</v>
+      </c>
+      <c r="G133">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="134" spans="1:7">
+      <c r="A134" s="2">
+        <v>44082</v>
+      </c>
+      <c r="B134" t="s">
+        <v>8</v>
+      </c>
+      <c r="C134">
+        <v>2393</v>
+      </c>
+      <c r="D134">
+        <v>1166</v>
+      </c>
+      <c r="E134">
+        <v>103</v>
+      </c>
+      <c r="F134">
+        <v>2258</v>
+      </c>
+      <c r="G134">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="135" spans="1:7">
+      <c r="A135" s="2">
+        <v>44083</v>
+      </c>
+      <c r="B135" t="s">
+        <v>8</v>
+      </c>
+      <c r="C135">
+        <v>2400</v>
+      </c>
+      <c r="D135">
+        <v>1171</v>
+      </c>
+      <c r="E135">
+        <v>103</v>
+      </c>
+      <c r="F135">
+        <v>2260</v>
+      </c>
+      <c r="G135">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="136" spans="1:7">
+      <c r="A136" s="2">
+        <v>44084</v>
+      </c>
+      <c r="B136" t="s">
+        <v>8</v>
+      </c>
+      <c r="C136">
+        <v>2412</v>
+      </c>
+      <c r="D136">
+        <v>1178</v>
+      </c>
+      <c r="E136">
+        <v>103</v>
+      </c>
+      <c r="F136">
+        <v>2263</v>
+      </c>
+      <c r="G136">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="137" spans="1:7">
+      <c r="A137" s="2">
+        <v>44088</v>
+      </c>
+      <c r="B137" t="s">
+        <v>11</v>
+      </c>
+      <c r="C137">
+        <v>2429</v>
+      </c>
+      <c r="D137">
+        <v>1186</v>
+      </c>
+      <c r="E137">
+        <v>103</v>
+      </c>
+      <c r="F137">
+        <v>2271</v>
+      </c>
+      <c r="G137">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="138" spans="1:7">
+      <c r="A138" s="2">
+        <v>44089</v>
+      </c>
+      <c r="B138" t="s">
+        <v>18</v>
+      </c>
+      <c r="C138">
+        <v>2477</v>
+      </c>
+      <c r="D138">
+        <v>1210</v>
+      </c>
+      <c r="E138">
+        <v>103</v>
+      </c>
+      <c r="F138">
+        <v>2288</v>
+      </c>
+      <c r="G138">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="139" spans="1:7">
+      <c r="A139" s="2">
+        <v>44090</v>
+      </c>
+      <c r="B139" t="s">
+        <v>12</v>
+      </c>
+      <c r="C139">
+        <v>2503</v>
+      </c>
+      <c r="D139">
+        <v>1224</v>
+      </c>
+      <c r="E139">
+        <v>103</v>
+      </c>
+      <c r="F139">
+        <v>2297</v>
+      </c>
+      <c r="G139">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="140" spans="1:7">
+      <c r="A140" s="2">
+        <v>44091</v>
+      </c>
+      <c r="B140" t="s">
+        <v>15</v>
+      </c>
+      <c r="C140">
+        <v>2522</v>
+      </c>
+      <c r="D140">
+        <v>1232</v>
+      </c>
+      <c r="E140">
+        <v>103</v>
+      </c>
+      <c r="F140">
+        <v>2309</v>
+      </c>
+      <c r="G140">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="141" spans="1:7">
+      <c r="A141" s="2">
+        <v>44092</v>
+      </c>
+      <c r="B141" t="s">
+        <v>11</v>
+      </c>
+      <c r="C141">
+        <v>2550</v>
+      </c>
+      <c r="D141">
+        <v>1248</v>
+      </c>
+      <c r="E141">
+        <v>103</v>
+      </c>
+      <c r="F141">
+        <v>2326</v>
+      </c>
+      <c r="G141">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="142" spans="1:7">
+      <c r="A142" s="2">
+        <v>44095</v>
+      </c>
+      <c r="B142" t="s">
+        <v>7</v>
+      </c>
+      <c r="C142">
+        <v>2568</v>
+      </c>
+      <c r="D142">
+        <v>1252</v>
+      </c>
+      <c r="E142">
+        <v>104</v>
+      </c>
+      <c r="F142">
+        <v>2350</v>
+      </c>
+      <c r="G142">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="143" spans="1:7">
+      <c r="A143" s="2">
+        <v>44096</v>
+      </c>
+      <c r="B143" t="s">
+        <v>15</v>
+      </c>
+      <c r="C143">
+        <v>2584</v>
+      </c>
+      <c r="D143">
+        <v>1261</v>
+      </c>
+      <c r="E143">
+        <v>104</v>
+      </c>
+      <c r="F143">
+        <v>2369</v>
+      </c>
+      <c r="G143">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="144" spans="1:7">
+      <c r="A144" s="2">
+        <v>44097</v>
+      </c>
+      <c r="B144" t="s">
+        <v>11</v>
+      </c>
+      <c r="C144">
+        <v>2600</v>
+      </c>
+      <c r="D144">
+        <v>1268</v>
+      </c>
+      <c r="E144">
+        <v>104</v>
+      </c>
+      <c r="F144">
+        <v>2387</v>
+      </c>
+      <c r="G144">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="145" spans="1:7">
+      <c r="A145" s="2">
+        <v>44098</v>
+      </c>
+      <c r="B145" t="s">
+        <v>15</v>
+      </c>
+      <c r="C145">
+        <v>2621</v>
+      </c>
+      <c r="D145">
+        <v>1279</v>
+      </c>
+      <c r="E145">
+        <v>104</v>
+      </c>
+      <c r="F145">
+        <v>2398</v>
+      </c>
+      <c r="G145">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="146" spans="1:7">
+      <c r="A146" s="2">
+        <v>44099</v>
+      </c>
+      <c r="B146" t="s">
+        <v>11</v>
+      </c>
+      <c r="C146">
+        <v>2643</v>
+      </c>
+      <c r="D146">
+        <v>1293</v>
+      </c>
+      <c r="E146">
+        <v>104</v>
+      </c>
+      <c r="F146">
+        <v>2415</v>
+      </c>
+      <c r="G146">
+        <v>124</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/c19stats-ac-rohdaten.xlsx
+++ b/data/c19stats-ac-rohdaten.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="19">
   <si>
     <t>Uhrzeit</t>
   </si>
@@ -434,7 +434,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G146"/>
+  <dimension ref="A1:G155"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -3798,6 +3798,213 @@
         <v>124</v>
       </c>
     </row>
+    <row r="147" spans="1:7">
+      <c r="A147" s="2">
+        <v>44102</v>
+      </c>
+      <c r="B147" t="s">
+        <v>14</v>
+      </c>
+      <c r="C147">
+        <v>2707</v>
+      </c>
+      <c r="D147">
+        <v>1325</v>
+      </c>
+      <c r="E147">
+        <v>105</v>
+      </c>
+      <c r="F147">
+        <v>2442</v>
+      </c>
+      <c r="G147">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="148" spans="1:7">
+      <c r="A148" s="2">
+        <v>44103</v>
+      </c>
+      <c r="B148" t="s">
+        <v>16</v>
+      </c>
+      <c r="C148">
+        <v>2718</v>
+      </c>
+      <c r="D148">
+        <v>1333</v>
+      </c>
+      <c r="E148">
+        <v>105</v>
+      </c>
+      <c r="F148">
+        <v>2464</v>
+      </c>
+      <c r="G148">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="149" spans="1:7">
+      <c r="A149" s="2">
+        <v>44104</v>
+      </c>
+      <c r="B149" t="s">
+        <v>12</v>
+      </c>
+      <c r="C149">
+        <v>2734</v>
+      </c>
+      <c r="D149">
+        <v>1342</v>
+      </c>
+      <c r="E149">
+        <v>106</v>
+      </c>
+      <c r="F149">
+        <v>2476</v>
+      </c>
+      <c r="G149">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="150" spans="1:7">
+      <c r="A150" s="2">
+        <v>44105</v>
+      </c>
+      <c r="B150" t="s">
+        <v>12</v>
+      </c>
+      <c r="C150">
+        <v>2776</v>
+      </c>
+      <c r="D150">
+        <v>1371</v>
+      </c>
+      <c r="E150">
+        <v>106</v>
+      </c>
+      <c r="F150">
+        <v>2495</v>
+      </c>
+      <c r="G150">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="151" spans="1:7">
+      <c r="A151" s="2">
+        <v>44106</v>
+      </c>
+      <c r="B151" t="s">
+        <v>7</v>
+      </c>
+      <c r="C151">
+        <v>2812</v>
+      </c>
+      <c r="D151">
+        <v>1395</v>
+      </c>
+      <c r="E151">
+        <v>106</v>
+      </c>
+      <c r="F151">
+        <v>2524</v>
+      </c>
+      <c r="G151">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="152" spans="1:7">
+      <c r="A152" s="2">
+        <v>44109</v>
+      </c>
+      <c r="B152" t="s">
+        <v>7</v>
+      </c>
+      <c r="C152">
+        <v>2883</v>
+      </c>
+      <c r="D152">
+        <v>1439</v>
+      </c>
+      <c r="E152">
+        <v>106</v>
+      </c>
+      <c r="F152">
+        <v>2571</v>
+      </c>
+      <c r="G152">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="153" spans="1:7">
+      <c r="A153" s="2">
+        <v>44110</v>
+      </c>
+      <c r="B153" t="s">
+        <v>15</v>
+      </c>
+      <c r="C153">
+        <v>2891</v>
+      </c>
+      <c r="D153">
+        <v>1445</v>
+      </c>
+      <c r="E153">
+        <v>107</v>
+      </c>
+      <c r="F153">
+        <v>2601</v>
+      </c>
+      <c r="G153">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="154" spans="1:7">
+      <c r="A154" s="2">
+        <v>44111</v>
+      </c>
+      <c r="B154" t="s">
+        <v>13</v>
+      </c>
+      <c r="C154">
+        <v>2936</v>
+      </c>
+      <c r="D154">
+        <v>1468</v>
+      </c>
+      <c r="E154">
+        <v>107</v>
+      </c>
+      <c r="F154">
+        <v>2617</v>
+      </c>
+      <c r="G154">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="155" spans="1:7">
+      <c r="A155" s="2">
+        <v>44112</v>
+      </c>
+      <c r="B155" t="s">
+        <v>9</v>
+      </c>
+      <c r="C155">
+        <v>2988</v>
+      </c>
+      <c r="D155">
+        <v>1496</v>
+      </c>
+      <c r="E155">
+        <v>107</v>
+      </c>
+      <c r="F155">
+        <v>2638</v>
+      </c>
+      <c r="G155">
+        <v>243</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/c19stats-ac-rohdaten.xlsx
+++ b/data/c19stats-ac-rohdaten.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="21">
   <si>
     <t>Uhrzeit</t>
   </si>
@@ -71,6 +71,12 @@
   </si>
   <si>
     <t>08:45:00</t>
+  </si>
+  <si>
+    <t>11:15:00</t>
+  </si>
+  <si>
+    <t>12:15:00</t>
   </si>
 </sst>
 </file>
@@ -434,7 +440,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G155"/>
+  <dimension ref="A1:G166"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -4005,6 +4011,259 @@
         <v>243</v>
       </c>
     </row>
+    <row r="156" spans="1:7">
+      <c r="A156" s="2">
+        <v>44113</v>
+      </c>
+      <c r="B156" t="s">
+        <v>7</v>
+      </c>
+      <c r="C156">
+        <v>3027</v>
+      </c>
+      <c r="D156">
+        <v>1515</v>
+      </c>
+      <c r="E156">
+        <v>109</v>
+      </c>
+      <c r="F156">
+        <v>2664</v>
+      </c>
+      <c r="G156">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="157" spans="1:7">
+      <c r="A157" s="2">
+        <v>44116</v>
+      </c>
+      <c r="B157" t="s">
+        <v>19</v>
+      </c>
+      <c r="C157">
+        <v>3167</v>
+      </c>
+      <c r="D157">
+        <v>1585</v>
+      </c>
+      <c r="E157">
+        <v>109</v>
+      </c>
+      <c r="F157">
+        <v>2723</v>
+      </c>
+      <c r="G157">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="158" spans="1:7">
+      <c r="A158" s="2">
+        <v>44117</v>
+      </c>
+      <c r="B158" t="s">
+        <v>13</v>
+      </c>
+      <c r="C158">
+        <v>3188</v>
+      </c>
+      <c r="D158">
+        <v>1594</v>
+      </c>
+      <c r="E158">
+        <v>109</v>
+      </c>
+      <c r="F158">
+        <v>2772</v>
+      </c>
+      <c r="G158">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="159" spans="1:7">
+      <c r="A159" s="2">
+        <v>44118</v>
+      </c>
+      <c r="B159" t="s">
+        <v>13</v>
+      </c>
+      <c r="C159">
+        <v>3257</v>
+      </c>
+      <c r="D159">
+        <v>1626</v>
+      </c>
+      <c r="E159">
+        <v>109</v>
+      </c>
+      <c r="F159">
+        <v>2806</v>
+      </c>
+      <c r="G159">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="160" spans="1:7">
+      <c r="A160" s="2">
+        <v>44119</v>
+      </c>
+      <c r="B160" t="s">
+        <v>10</v>
+      </c>
+      <c r="C160">
+        <v>3393</v>
+      </c>
+      <c r="D160">
+        <v>1672</v>
+      </c>
+      <c r="E160">
+        <v>109</v>
+      </c>
+      <c r="F160">
+        <v>2845</v>
+      </c>
+      <c r="G160">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="161" spans="1:7">
+      <c r="A161" s="2">
+        <v>44120</v>
+      </c>
+      <c r="B161" t="s">
+        <v>20</v>
+      </c>
+      <c r="C161">
+        <v>3509</v>
+      </c>
+      <c r="D161">
+        <v>1729</v>
+      </c>
+      <c r="E161">
+        <v>109</v>
+      </c>
+      <c r="F161">
+        <v>2891</v>
+      </c>
+      <c r="G161">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="162" spans="1:7">
+      <c r="A162" s="2">
+        <v>44123</v>
+      </c>
+      <c r="B162" t="s">
+        <v>10</v>
+      </c>
+      <c r="C162">
+        <v>3778</v>
+      </c>
+      <c r="D162">
+        <v>1838</v>
+      </c>
+      <c r="E162">
+        <v>110</v>
+      </c>
+      <c r="F162">
+        <v>3016</v>
+      </c>
+      <c r="G162">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="163" spans="1:7">
+      <c r="A163" s="2">
+        <v>44124</v>
+      </c>
+      <c r="B163" t="s">
+        <v>16</v>
+      </c>
+      <c r="C163">
+        <v>3816</v>
+      </c>
+      <c r="D163">
+        <v>1855</v>
+      </c>
+      <c r="E163">
+        <v>110</v>
+      </c>
+      <c r="F163">
+        <v>3084</v>
+      </c>
+      <c r="G163">
+        <v>622</v>
+      </c>
+    </row>
+    <row r="164" spans="1:7">
+      <c r="A164" s="2">
+        <v>44125</v>
+      </c>
+      <c r="B164" t="s">
+        <v>9</v>
+      </c>
+      <c r="C164">
+        <v>3912</v>
+      </c>
+      <c r="D164">
+        <v>1894</v>
+      </c>
+      <c r="E164">
+        <v>110</v>
+      </c>
+      <c r="F164">
+        <v>3157</v>
+      </c>
+      <c r="G164">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="165" spans="1:7">
+      <c r="A165" s="2">
+        <v>44126</v>
+      </c>
+      <c r="B165" t="s">
+        <v>8</v>
+      </c>
+      <c r="C165">
+        <v>4103</v>
+      </c>
+      <c r="D165">
+        <v>1973</v>
+      </c>
+      <c r="E165">
+        <v>111</v>
+      </c>
+      <c r="F165">
+        <v>3237</v>
+      </c>
+      <c r="G165">
+        <v>755</v>
+      </c>
+    </row>
+    <row r="166" spans="1:7">
+      <c r="A166" s="2">
+        <v>44127</v>
+      </c>
+      <c r="B166" t="s">
+        <v>9</v>
+      </c>
+      <c r="C166">
+        <v>4288</v>
+      </c>
+      <c r="D166">
+        <v>2031</v>
+      </c>
+      <c r="E166">
+        <v>111</v>
+      </c>
+      <c r="F166">
+        <v>3330</v>
+      </c>
+      <c r="G166">
+        <v>847</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/c19stats-ac-rohdaten.xlsx
+++ b/data/c19stats-ac-rohdaten.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="172" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="23">
   <si>
     <t>Uhrzeit</t>
   </si>
@@ -77,6 +77,12 @@
   </si>
   <si>
     <t>12:15:00</t>
+  </si>
+  <si>
+    <t>14:45:00</t>
+  </si>
+  <si>
+    <t>15:30:00</t>
   </si>
 </sst>
 </file>
@@ -440,7 +446,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G166"/>
+  <dimension ref="A1:G176"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -4264,6 +4270,236 @@
         <v>847</v>
       </c>
     </row>
+    <row r="167" spans="1:7">
+      <c r="A167" s="2">
+        <v>44130</v>
+      </c>
+      <c r="B167" t="s">
+        <v>21</v>
+      </c>
+      <c r="C167">
+        <v>4889</v>
+      </c>
+      <c r="D167">
+        <v>2252</v>
+      </c>
+      <c r="E167">
+        <v>111</v>
+      </c>
+      <c r="F167">
+        <v>3574</v>
+      </c>
+      <c r="G167">
+        <v>1204</v>
+      </c>
+    </row>
+    <row r="168" spans="1:7">
+      <c r="A168" s="2">
+        <v>44131</v>
+      </c>
+      <c r="B168" t="s">
+        <v>7</v>
+      </c>
+      <c r="C168">
+        <v>4969</v>
+      </c>
+      <c r="D168">
+        <v>2278</v>
+      </c>
+      <c r="E168">
+        <v>116</v>
+      </c>
+      <c r="F168">
+        <v>3734</v>
+      </c>
+      <c r="G168">
+        <v>1119</v>
+      </c>
+    </row>
+    <row r="169" spans="1:7">
+      <c r="A169" s="2">
+        <v>44132</v>
+      </c>
+      <c r="B169" t="s">
+        <v>12</v>
+      </c>
+      <c r="C169">
+        <v>5082</v>
+      </c>
+      <c r="D169">
+        <v>2322</v>
+      </c>
+      <c r="E169">
+        <v>119</v>
+      </c>
+      <c r="F169">
+        <v>3840</v>
+      </c>
+      <c r="G169">
+        <v>1123</v>
+      </c>
+    </row>
+    <row r="170" spans="1:7">
+      <c r="A170" s="2">
+        <v>44133</v>
+      </c>
+      <c r="B170" t="s">
+        <v>8</v>
+      </c>
+      <c r="C170">
+        <v>5316</v>
+      </c>
+      <c r="D170">
+        <v>2397</v>
+      </c>
+      <c r="E170">
+        <v>122</v>
+      </c>
+      <c r="F170">
+        <v>3953</v>
+      </c>
+      <c r="G170">
+        <v>1241</v>
+      </c>
+    </row>
+    <row r="171" spans="1:7">
+      <c r="A171" s="2">
+        <v>44134</v>
+      </c>
+      <c r="B171" t="s">
+        <v>14</v>
+      </c>
+      <c r="C171">
+        <v>5612</v>
+      </c>
+      <c r="D171">
+        <v>2512</v>
+      </c>
+      <c r="E171">
+        <v>124</v>
+      </c>
+      <c r="F171">
+        <v>4093</v>
+      </c>
+      <c r="G171">
+        <v>1395</v>
+      </c>
+    </row>
+    <row r="172" spans="1:7">
+      <c r="A172" s="2">
+        <v>44137</v>
+      </c>
+      <c r="B172" t="s">
+        <v>7</v>
+      </c>
+      <c r="C172">
+        <v>6061</v>
+      </c>
+      <c r="D172">
+        <v>2699</v>
+      </c>
+      <c r="E172">
+        <v>125</v>
+      </c>
+      <c r="F172">
+        <v>4610</v>
+      </c>
+      <c r="G172">
+        <v>1326</v>
+      </c>
+    </row>
+    <row r="173" spans="1:7">
+      <c r="A173" s="2">
+        <v>44138</v>
+      </c>
+      <c r="B173" t="s">
+        <v>22</v>
+      </c>
+      <c r="C173">
+        <v>6153</v>
+      </c>
+      <c r="D173">
+        <v>2743</v>
+      </c>
+      <c r="E173">
+        <v>129</v>
+      </c>
+      <c r="F173">
+        <v>4966</v>
+      </c>
+      <c r="G173">
+        <v>1058</v>
+      </c>
+    </row>
+    <row r="174" spans="1:7">
+      <c r="A174" s="2">
+        <v>44139</v>
+      </c>
+      <c r="B174" t="s">
+        <v>12</v>
+      </c>
+      <c r="C174">
+        <v>6278</v>
+      </c>
+      <c r="D174">
+        <v>2785</v>
+      </c>
+      <c r="E174">
+        <v>130</v>
+      </c>
+      <c r="F174">
+        <v>5013</v>
+      </c>
+      <c r="G174">
+        <v>1135</v>
+      </c>
+    </row>
+    <row r="175" spans="1:7">
+      <c r="A175" s="2">
+        <v>44140</v>
+      </c>
+      <c r="B175" t="s">
+        <v>16</v>
+      </c>
+      <c r="C175">
+        <v>6519</v>
+      </c>
+      <c r="D175">
+        <v>2873</v>
+      </c>
+      <c r="E175">
+        <v>130</v>
+      </c>
+      <c r="F175">
+        <v>5166</v>
+      </c>
+      <c r="G175">
+        <v>1223</v>
+      </c>
+    </row>
+    <row r="176" spans="1:7">
+      <c r="A176" s="2">
+        <v>44141</v>
+      </c>
+      <c r="B176" t="s">
+        <v>9</v>
+      </c>
+      <c r="C176">
+        <v>6748</v>
+      </c>
+      <c r="D176">
+        <v>2957</v>
+      </c>
+      <c r="E176">
+        <v>132</v>
+      </c>
+      <c r="F176">
+        <v>5360</v>
+      </c>
+      <c r="G176">
+        <v>1256</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/c19stats-ac-rohdaten.xlsx
+++ b/data/c19stats-ac-rohdaten.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="182" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="25">
   <si>
     <t>Uhrzeit</t>
   </si>
@@ -83,6 +83,12 @@
   </si>
   <si>
     <t>15:30:00</t>
+  </si>
+  <si>
+    <t>09:20:00</t>
+  </si>
+  <si>
+    <t>10:20:00</t>
   </si>
 </sst>
 </file>
@@ -446,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G176"/>
+  <dimension ref="A1:G196"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -4500,6 +4506,466 @@
         <v>1256</v>
       </c>
     </row>
+    <row r="177" spans="1:7">
+      <c r="A177" s="2">
+        <v>44144</v>
+      </c>
+      <c r="B177" t="s">
+        <v>9</v>
+      </c>
+      <c r="C177">
+        <v>7273</v>
+      </c>
+      <c r="D177">
+        <v>3193</v>
+      </c>
+      <c r="E177">
+        <v>132</v>
+      </c>
+      <c r="F177">
+        <v>5831</v>
+      </c>
+      <c r="G177">
+        <v>1310</v>
+      </c>
+    </row>
+    <row r="178" spans="1:7">
+      <c r="A178" s="2">
+        <v>44145</v>
+      </c>
+      <c r="B178" t="s">
+        <v>7</v>
+      </c>
+      <c r="C178">
+        <v>7426</v>
+      </c>
+      <c r="D178">
+        <v>3248</v>
+      </c>
+      <c r="E178">
+        <v>140</v>
+      </c>
+      <c r="F178">
+        <v>6076</v>
+      </c>
+      <c r="G178">
+        <v>1210</v>
+      </c>
+    </row>
+    <row r="179" spans="1:7">
+      <c r="A179" s="2">
+        <v>44146</v>
+      </c>
+      <c r="B179" t="s">
+        <v>12</v>
+      </c>
+      <c r="C179">
+        <v>7658</v>
+      </c>
+      <c r="D179">
+        <v>3335</v>
+      </c>
+      <c r="E179">
+        <v>142</v>
+      </c>
+      <c r="F179">
+        <v>6237</v>
+      </c>
+      <c r="G179">
+        <v>1279</v>
+      </c>
+    </row>
+    <row r="180" spans="1:7">
+      <c r="A180" s="2">
+        <v>44147</v>
+      </c>
+      <c r="B180" t="s">
+        <v>16</v>
+      </c>
+      <c r="C180">
+        <v>7871</v>
+      </c>
+      <c r="D180">
+        <v>3417</v>
+      </c>
+      <c r="E180">
+        <v>143</v>
+      </c>
+      <c r="F180">
+        <v>6394</v>
+      </c>
+      <c r="G180">
+        <v>1334</v>
+      </c>
+    </row>
+    <row r="181" spans="1:7">
+      <c r="A181" s="2">
+        <v>44148</v>
+      </c>
+      <c r="B181" t="s">
+        <v>12</v>
+      </c>
+      <c r="C181">
+        <v>8211</v>
+      </c>
+      <c r="D181">
+        <v>3552</v>
+      </c>
+      <c r="E181">
+        <v>143</v>
+      </c>
+      <c r="F181">
+        <v>6638</v>
+      </c>
+      <c r="G181">
+        <v>1430</v>
+      </c>
+    </row>
+    <row r="182" spans="1:7">
+      <c r="A182" s="2">
+        <v>44151</v>
+      </c>
+      <c r="B182" t="s">
+        <v>11</v>
+      </c>
+      <c r="C182">
+        <v>8681</v>
+      </c>
+      <c r="D182">
+        <v>3738</v>
+      </c>
+      <c r="E182">
+        <v>143</v>
+      </c>
+      <c r="F182">
+        <v>7124</v>
+      </c>
+      <c r="G182">
+        <v>1414</v>
+      </c>
+    </row>
+    <row r="183" spans="1:7">
+      <c r="A183" s="2">
+        <v>44152</v>
+      </c>
+      <c r="B183" t="s">
+        <v>23</v>
+      </c>
+      <c r="C183">
+        <v>8728</v>
+      </c>
+      <c r="D183">
+        <v>3768</v>
+      </c>
+      <c r="E183">
+        <v>148</v>
+      </c>
+      <c r="F183">
+        <v>7322</v>
+      </c>
+      <c r="G183">
+        <v>1258</v>
+      </c>
+    </row>
+    <row r="184" spans="1:7">
+      <c r="A184" s="2">
+        <v>44153</v>
+      </c>
+      <c r="B184" t="s">
+        <v>9</v>
+      </c>
+      <c r="C184">
+        <v>8920</v>
+      </c>
+      <c r="D184">
+        <v>3840</v>
+      </c>
+      <c r="E184">
+        <v>148</v>
+      </c>
+      <c r="F184">
+        <v>7498</v>
+      </c>
+      <c r="G184">
+        <v>1274</v>
+      </c>
+    </row>
+    <row r="185" spans="1:7">
+      <c r="A185" s="2">
+        <v>44154</v>
+      </c>
+      <c r="B185" t="s">
+        <v>23</v>
+      </c>
+      <c r="C185">
+        <v>9179</v>
+      </c>
+      <c r="D185">
+        <v>3950</v>
+      </c>
+      <c r="E185">
+        <v>156</v>
+      </c>
+      <c r="F185">
+        <v>7631</v>
+      </c>
+      <c r="G185">
+        <v>1392</v>
+      </c>
+    </row>
+    <row r="186" spans="1:7">
+      <c r="A186" s="2">
+        <v>44155</v>
+      </c>
+      <c r="B186" t="s">
+        <v>8</v>
+      </c>
+      <c r="C186">
+        <v>9311</v>
+      </c>
+      <c r="D186">
+        <v>3995</v>
+      </c>
+      <c r="E186">
+        <v>162</v>
+      </c>
+      <c r="F186">
+        <v>7849</v>
+      </c>
+      <c r="G186">
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="187" spans="1:7">
+      <c r="A187" s="2">
+        <v>44158</v>
+      </c>
+      <c r="B187" t="s">
+        <v>9</v>
+      </c>
+      <c r="C187">
+        <v>9565</v>
+      </c>
+      <c r="D187">
+        <v>4100</v>
+      </c>
+      <c r="E187">
+        <v>164</v>
+      </c>
+      <c r="F187">
+        <v>8230</v>
+      </c>
+      <c r="G187">
+        <v>1171</v>
+      </c>
+    </row>
+    <row r="188" spans="1:7">
+      <c r="A188" s="2">
+        <v>44159</v>
+      </c>
+      <c r="B188" t="s">
+        <v>8</v>
+      </c>
+      <c r="C188">
+        <v>9676</v>
+      </c>
+      <c r="D188">
+        <v>4159</v>
+      </c>
+      <c r="E188">
+        <v>168</v>
+      </c>
+      <c r="F188">
+        <v>8447</v>
+      </c>
+      <c r="G188">
+        <v>1061</v>
+      </c>
+    </row>
+    <row r="189" spans="1:7">
+      <c r="A189" s="2">
+        <v>44160</v>
+      </c>
+      <c r="B189" t="s">
+        <v>24</v>
+      </c>
+      <c r="C189">
+        <v>9827</v>
+      </c>
+      <c r="D189">
+        <v>4226</v>
+      </c>
+      <c r="E189">
+        <v>172</v>
+      </c>
+      <c r="F189">
+        <v>8576</v>
+      </c>
+      <c r="G189">
+        <v>1079</v>
+      </c>
+    </row>
+    <row r="190" spans="1:7">
+      <c r="A190" s="2">
+        <v>44161</v>
+      </c>
+      <c r="B190" t="s">
+        <v>9</v>
+      </c>
+      <c r="C190">
+        <v>9867</v>
+      </c>
+      <c r="D190">
+        <v>4241</v>
+      </c>
+      <c r="E190">
+        <v>175</v>
+      </c>
+      <c r="F190">
+        <v>8698</v>
+      </c>
+      <c r="G190">
+        <v>994</v>
+      </c>
+    </row>
+    <row r="191" spans="1:7">
+      <c r="A191" s="2">
+        <v>44162</v>
+      </c>
+      <c r="B191" t="s">
+        <v>24</v>
+      </c>
+      <c r="C191">
+        <v>10038</v>
+      </c>
+      <c r="D191">
+        <v>4325</v>
+      </c>
+      <c r="E191">
+        <v>178</v>
+      </c>
+      <c r="F191">
+        <v>8786</v>
+      </c>
+      <c r="G191">
+        <v>1074</v>
+      </c>
+    </row>
+    <row r="192" spans="1:7">
+      <c r="A192" s="2">
+        <v>44165</v>
+      </c>
+      <c r="B192" t="s">
+        <v>7</v>
+      </c>
+      <c r="C192">
+        <v>10289</v>
+      </c>
+      <c r="D192">
+        <v>4425</v>
+      </c>
+      <c r="E192">
+        <v>182</v>
+      </c>
+      <c r="F192">
+        <v>8868</v>
+      </c>
+      <c r="G192">
+        <v>1239</v>
+      </c>
+    </row>
+    <row r="193" spans="1:7">
+      <c r="A193" s="2">
+        <v>44166</v>
+      </c>
+      <c r="B193" t="s">
+        <v>19</v>
+      </c>
+      <c r="C193">
+        <v>10316</v>
+      </c>
+      <c r="D193">
+        <v>4441</v>
+      </c>
+      <c r="E193">
+        <v>184</v>
+      </c>
+      <c r="F193">
+        <v>8968</v>
+      </c>
+      <c r="G193">
+        <v>1164</v>
+      </c>
+    </row>
+    <row r="194" spans="1:7">
+      <c r="A194" s="2">
+        <v>44167</v>
+      </c>
+      <c r="B194" t="s">
+        <v>10</v>
+      </c>
+      <c r="C194">
+        <v>10460</v>
+      </c>
+      <c r="D194">
+        <v>4487</v>
+      </c>
+      <c r="E194">
+        <v>188</v>
+      </c>
+      <c r="F194">
+        <v>9194</v>
+      </c>
+      <c r="G194">
+        <v>1078</v>
+      </c>
+    </row>
+    <row r="195" spans="1:7">
+      <c r="A195" s="2">
+        <v>44168</v>
+      </c>
+      <c r="B195" t="s">
+        <v>7</v>
+      </c>
+      <c r="C195">
+        <v>10605</v>
+      </c>
+      <c r="D195">
+        <v>4550</v>
+      </c>
+      <c r="E195">
+        <v>191</v>
+      </c>
+      <c r="F195">
+        <v>9314</v>
+      </c>
+      <c r="G195">
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="196" spans="1:7">
+      <c r="A196" s="2">
+        <v>44169</v>
+      </c>
+      <c r="B196" t="s">
+        <v>7</v>
+      </c>
+      <c r="C196">
+        <v>10764</v>
+      </c>
+      <c r="D196">
+        <v>4627</v>
+      </c>
+      <c r="E196">
+        <v>196</v>
+      </c>
+      <c r="F196">
+        <v>9548</v>
+      </c>
+      <c r="G196">
+        <v>1020</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/c19stats-ac-rohdaten.xlsx
+++ b/data/c19stats-ac-rohdaten.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="27">
   <si>
     <t>Uhrzeit</t>
   </si>
@@ -89,6 +89,12 @@
   </si>
   <si>
     <t>10:20:00</t>
+  </si>
+  <si>
+    <t>12:00:00</t>
+  </si>
+  <si>
+    <t>10:40:00</t>
   </si>
 </sst>
 </file>
@@ -452,7 +458,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G196"/>
+  <dimension ref="A1:G211"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -4966,6 +4972,351 @@
         <v>1020</v>
       </c>
     </row>
+    <row r="197" spans="1:7">
+      <c r="A197" s="2">
+        <v>44172</v>
+      </c>
+      <c r="B197" t="s">
+        <v>11</v>
+      </c>
+      <c r="C197">
+        <v>11053</v>
+      </c>
+      <c r="D197">
+        <v>4767</v>
+      </c>
+      <c r="E197">
+        <v>197</v>
+      </c>
+      <c r="F197">
+        <v>9586</v>
+      </c>
+      <c r="G197">
+        <v>1270</v>
+      </c>
+    </row>
+    <row r="198" spans="1:7">
+      <c r="A198" s="2">
+        <v>44173</v>
+      </c>
+      <c r="B198" t="s">
+        <v>25</v>
+      </c>
+      <c r="C198">
+        <v>11080</v>
+      </c>
+      <c r="D198">
+        <v>4779</v>
+      </c>
+      <c r="E198">
+        <v>211</v>
+      </c>
+      <c r="F198">
+        <v>9730</v>
+      </c>
+      <c r="G198">
+        <v>1139</v>
+      </c>
+    </row>
+    <row r="199" spans="1:7">
+      <c r="A199" s="2">
+        <v>44174</v>
+      </c>
+      <c r="B199" t="s">
+        <v>26</v>
+      </c>
+      <c r="C199">
+        <v>11222</v>
+      </c>
+      <c r="D199">
+        <v>4828</v>
+      </c>
+      <c r="E199">
+        <v>213</v>
+      </c>
+      <c r="F199">
+        <v>9915</v>
+      </c>
+      <c r="G199">
+        <v>1094</v>
+      </c>
+    </row>
+    <row r="200" spans="1:7">
+      <c r="A200" s="2">
+        <v>44175</v>
+      </c>
+      <c r="B200" t="s">
+        <v>16</v>
+      </c>
+      <c r="C200">
+        <v>11442</v>
+      </c>
+      <c r="D200">
+        <v>4940</v>
+      </c>
+      <c r="E200">
+        <v>213</v>
+      </c>
+      <c r="F200">
+        <v>10086</v>
+      </c>
+      <c r="G200">
+        <v>1143</v>
+      </c>
+    </row>
+    <row r="201" spans="1:7">
+      <c r="A201" s="2">
+        <v>44176</v>
+      </c>
+      <c r="B201" t="s">
+        <v>10</v>
+      </c>
+      <c r="C201">
+        <v>11557</v>
+      </c>
+      <c r="D201">
+        <v>4979</v>
+      </c>
+      <c r="E201">
+        <v>214</v>
+      </c>
+      <c r="F201">
+        <v>10095</v>
+      </c>
+      <c r="G201">
+        <v>1248</v>
+      </c>
+    </row>
+    <row r="202" spans="1:7">
+      <c r="A202" s="2">
+        <v>44179</v>
+      </c>
+      <c r="B202" t="s">
+        <v>10</v>
+      </c>
+      <c r="C202">
+        <v>11970</v>
+      </c>
+      <c r="D202">
+        <v>5152</v>
+      </c>
+      <c r="E202">
+        <v>219</v>
+      </c>
+      <c r="F202">
+        <v>10237</v>
+      </c>
+      <c r="G202">
+        <v>1514</v>
+      </c>
+    </row>
+    <row r="203" spans="1:7">
+      <c r="A203" s="2">
+        <v>44180</v>
+      </c>
+      <c r="B203" t="s">
+        <v>9</v>
+      </c>
+      <c r="C203">
+        <v>12025</v>
+      </c>
+      <c r="D203">
+        <v>5181</v>
+      </c>
+      <c r="E203">
+        <v>219</v>
+      </c>
+      <c r="F203">
+        <v>10461</v>
+      </c>
+      <c r="G203">
+        <v>1345</v>
+      </c>
+    </row>
+    <row r="204" spans="1:7">
+      <c r="A204" s="2">
+        <v>44181</v>
+      </c>
+      <c r="B204" t="s">
+        <v>14</v>
+      </c>
+      <c r="C204">
+        <v>12197</v>
+      </c>
+      <c r="D204">
+        <v>5250</v>
+      </c>
+      <c r="E204">
+        <v>232</v>
+      </c>
+      <c r="F204">
+        <v>10640</v>
+      </c>
+      <c r="G204">
+        <v>1325</v>
+      </c>
+    </row>
+    <row r="205" spans="1:7">
+      <c r="A205" s="2">
+        <v>44182</v>
+      </c>
+      <c r="B205" t="s">
+        <v>8</v>
+      </c>
+      <c r="C205">
+        <v>12415</v>
+      </c>
+      <c r="D205">
+        <v>5340</v>
+      </c>
+      <c r="E205">
+        <v>240</v>
+      </c>
+      <c r="F205">
+        <v>10773</v>
+      </c>
+      <c r="G205">
+        <v>1402</v>
+      </c>
+    </row>
+    <row r="206" spans="1:7">
+      <c r="A206" s="2">
+        <v>44183</v>
+      </c>
+      <c r="B206" t="s">
+        <v>16</v>
+      </c>
+      <c r="C206">
+        <v>12592</v>
+      </c>
+      <c r="D206">
+        <v>5398</v>
+      </c>
+      <c r="E206">
+        <v>242</v>
+      </c>
+      <c r="F206">
+        <v>10783</v>
+      </c>
+      <c r="G206">
+        <v>1567</v>
+      </c>
+    </row>
+    <row r="207" spans="1:7">
+      <c r="A207" s="2">
+        <v>44186</v>
+      </c>
+      <c r="B207" t="s">
+        <v>10</v>
+      </c>
+      <c r="C207">
+        <v>13089</v>
+      </c>
+      <c r="D207">
+        <v>5602</v>
+      </c>
+      <c r="E207">
+        <v>246</v>
+      </c>
+      <c r="F207">
+        <v>11054</v>
+      </c>
+      <c r="G207">
+        <v>1789</v>
+      </c>
+    </row>
+    <row r="208" spans="1:7">
+      <c r="A208" s="2">
+        <v>44187</v>
+      </c>
+      <c r="B208" t="s">
+        <v>18</v>
+      </c>
+      <c r="C208">
+        <v>13144</v>
+      </c>
+      <c r="D208">
+        <v>5630</v>
+      </c>
+      <c r="E208">
+        <v>246</v>
+      </c>
+      <c r="F208">
+        <v>11232</v>
+      </c>
+      <c r="G208">
+        <v>1666</v>
+      </c>
+    </row>
+    <row r="209" spans="1:7">
+      <c r="A209" s="2">
+        <v>44188</v>
+      </c>
+      <c r="B209" t="s">
+        <v>14</v>
+      </c>
+      <c r="C209">
+        <v>13276</v>
+      </c>
+      <c r="D209">
+        <v>5658</v>
+      </c>
+      <c r="E209">
+        <v>256</v>
+      </c>
+      <c r="F209">
+        <v>11409</v>
+      </c>
+      <c r="G209">
+        <v>1611</v>
+      </c>
+    </row>
+    <row r="210" spans="1:7">
+      <c r="A210" s="2">
+        <v>44193</v>
+      </c>
+      <c r="B210" t="s">
+        <v>17</v>
+      </c>
+      <c r="C210">
+        <v>14012</v>
+      </c>
+      <c r="D210">
+        <v>5982</v>
+      </c>
+      <c r="E210">
+        <v>263</v>
+      </c>
+      <c r="F210">
+        <v>11950</v>
+      </c>
+      <c r="G210">
+        <v>1799</v>
+      </c>
+    </row>
+    <row r="211" spans="1:7">
+      <c r="A211" s="2">
+        <v>44194</v>
+      </c>
+      <c r="B211" t="s">
+        <v>8</v>
+      </c>
+      <c r="C211">
+        <v>14078</v>
+      </c>
+      <c r="D211">
+        <v>6014</v>
+      </c>
+      <c r="E211">
+        <v>265</v>
+      </c>
+      <c r="F211">
+        <v>12189</v>
+      </c>
+      <c r="G211">
+        <v>1624</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/data/c19stats-ac-rohdaten.xlsx
+++ b/data/c19stats-ac-rohdaten.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G255"/>
+  <dimension ref="A1:G286"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6826,6 +6826,781 @@
         <v>366</v>
       </c>
     </row>
+    <row r="256">
+      <c r="A256" s="2" t="n">
+        <v>44259</v>
+      </c>
+      <c r="B256" t="inlineStr">
+        <is>
+          <t>09:30:00</t>
+        </is>
+      </c>
+      <c r="C256" t="n">
+        <v>18194</v>
+      </c>
+      <c r="D256" t="n">
+        <v>7692</v>
+      </c>
+      <c r="E256" t="n">
+        <v>470</v>
+      </c>
+      <c r="F256" t="n">
+        <v>17244</v>
+      </c>
+      <c r="G256" t="n">
+        <v>480</v>
+      </c>
+    </row>
+    <row r="257">
+      <c r="A257" s="2" t="n">
+        <v>44260</v>
+      </c>
+      <c r="B257" t="inlineStr">
+        <is>
+          <t>11:00:00</t>
+        </is>
+      </c>
+      <c r="C257" t="n">
+        <v>18266</v>
+      </c>
+      <c r="D257" t="n">
+        <v>7718</v>
+      </c>
+      <c r="E257" t="n">
+        <v>470</v>
+      </c>
+      <c r="F257" t="n">
+        <v>17295</v>
+      </c>
+      <c r="G257" t="n">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="258">
+      <c r="A258" s="2" t="n">
+        <v>44263</v>
+      </c>
+      <c r="B258" t="inlineStr">
+        <is>
+          <t>10:30:00</t>
+        </is>
+      </c>
+      <c r="C258" t="n">
+        <v>18445</v>
+      </c>
+      <c r="D258" t="n">
+        <v>7789</v>
+      </c>
+      <c r="E258" t="n">
+        <v>473</v>
+      </c>
+      <c r="F258" t="n">
+        <v>17383</v>
+      </c>
+      <c r="G258" t="n">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="259">
+      <c r="A259" s="2" t="n">
+        <v>44264</v>
+      </c>
+      <c r="B259" t="inlineStr">
+        <is>
+          <t>10:30:00</t>
+        </is>
+      </c>
+      <c r="C259" t="n">
+        <v>18451</v>
+      </c>
+      <c r="D259" t="n">
+        <v>7791</v>
+      </c>
+      <c r="E259" t="n">
+        <v>474</v>
+      </c>
+      <c r="F259" t="n">
+        <v>17388</v>
+      </c>
+      <c r="G259" t="n">
+        <v>589</v>
+      </c>
+    </row>
+    <row r="260">
+      <c r="A260" s="2" t="n">
+        <v>44265</v>
+      </c>
+      <c r="B260" t="inlineStr">
+        <is>
+          <t>11:45:00</t>
+        </is>
+      </c>
+      <c r="C260" t="n">
+        <v>18548</v>
+      </c>
+      <c r="D260" t="n">
+        <v>7830</v>
+      </c>
+      <c r="E260" t="n">
+        <v>474</v>
+      </c>
+      <c r="F260" t="n">
+        <v>17451</v>
+      </c>
+      <c r="G260" t="n">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="261">
+      <c r="A261" s="2" t="n">
+        <v>44266</v>
+      </c>
+      <c r="B261" t="inlineStr">
+        <is>
+          <t>10:15:00</t>
+        </is>
+      </c>
+      <c r="C261" t="n">
+        <v>18651</v>
+      </c>
+      <c r="D261" t="n">
+        <v>7862</v>
+      </c>
+      <c r="E261" t="n">
+        <v>475</v>
+      </c>
+      <c r="F261" t="n">
+        <v>17493</v>
+      </c>
+      <c r="G261" t="n">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="262">
+      <c r="A262" s="2" t="n">
+        <v>44267</v>
+      </c>
+      <c r="B262" t="inlineStr">
+        <is>
+          <t>11:45:00</t>
+        </is>
+      </c>
+      <c r="C262" t="n">
+        <v>18747</v>
+      </c>
+      <c r="D262" t="n">
+        <v>7899</v>
+      </c>
+      <c r="E262" t="n">
+        <v>476</v>
+      </c>
+      <c r="F262" t="n">
+        <v>17508</v>
+      </c>
+      <c r="G262" t="n">
+        <v>763</v>
+      </c>
+    </row>
+    <row r="263">
+      <c r="A263" s="2" t="n">
+        <v>44270</v>
+      </c>
+      <c r="B263" t="inlineStr">
+        <is>
+          <t>10:45:00</t>
+        </is>
+      </c>
+      <c r="C263" t="n">
+        <v>18967</v>
+      </c>
+      <c r="D263" t="n">
+        <v>7988</v>
+      </c>
+      <c r="E263" t="n">
+        <v>479</v>
+      </c>
+      <c r="F263" t="n">
+        <v>17633</v>
+      </c>
+      <c r="G263" t="n">
+        <v>855</v>
+      </c>
+    </row>
+    <row r="264">
+      <c r="A264" s="2" t="n">
+        <v>44271</v>
+      </c>
+      <c r="B264" t="inlineStr">
+        <is>
+          <t>08:45:00</t>
+        </is>
+      </c>
+      <c r="C264" t="n">
+        <v>18970</v>
+      </c>
+      <c r="D264" t="n">
+        <v>7989</v>
+      </c>
+      <c r="E264" t="n">
+        <v>481</v>
+      </c>
+      <c r="F264" t="n">
+        <v>17638</v>
+      </c>
+      <c r="G264" t="n">
+        <v>851</v>
+      </c>
+    </row>
+    <row r="265">
+      <c r="A265" s="2" t="n">
+        <v>44272</v>
+      </c>
+      <c r="B265" t="inlineStr">
+        <is>
+          <t>10:45:00</t>
+        </is>
+      </c>
+      <c r="C265" t="n">
+        <v>19075</v>
+      </c>
+      <c r="D265" t="n">
+        <v>8041</v>
+      </c>
+      <c r="E265" t="n">
+        <v>482</v>
+      </c>
+      <c r="F265" t="n">
+        <v>17749</v>
+      </c>
+      <c r="G265" t="n">
+        <v>844</v>
+      </c>
+    </row>
+    <row r="266">
+      <c r="A266" s="2" t="n">
+        <v>44273</v>
+      </c>
+      <c r="B266" t="inlineStr">
+        <is>
+          <t>12:00:00</t>
+        </is>
+      </c>
+      <c r="C266" t="n">
+        <v>19232</v>
+      </c>
+      <c r="D266" t="n">
+        <v>8122</v>
+      </c>
+      <c r="E266" t="n">
+        <v>482</v>
+      </c>
+      <c r="F266" t="n">
+        <v>17800</v>
+      </c>
+      <c r="G266" t="n">
+        <v>950</v>
+      </c>
+    </row>
+    <row r="267">
+      <c r="A267" s="2" t="n">
+        <v>44274</v>
+      </c>
+      <c r="B267" t="inlineStr">
+        <is>
+          <t>10:15:00</t>
+        </is>
+      </c>
+      <c r="C267" t="n">
+        <v>19348</v>
+      </c>
+      <c r="D267" t="n">
+        <v>8190</v>
+      </c>
+      <c r="E267" t="n">
+        <v>484</v>
+      </c>
+      <c r="F267" t="n">
+        <v>17864</v>
+      </c>
+      <c r="G267" t="n">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="268">
+      <c r="A268" s="2" t="n">
+        <v>44277</v>
+      </c>
+      <c r="B268" t="inlineStr">
+        <is>
+          <t>10:30:00</t>
+        </is>
+      </c>
+      <c r="C268" t="n">
+        <v>19559</v>
+      </c>
+      <c r="D268" t="n">
+        <v>8293</v>
+      </c>
+      <c r="E268" t="n">
+        <v>486</v>
+      </c>
+      <c r="F268" t="n">
+        <v>18009</v>
+      </c>
+      <c r="G268" t="n">
+        <v>1064</v>
+      </c>
+    </row>
+    <row r="269">
+      <c r="A269" s="2" t="n">
+        <v>44278</v>
+      </c>
+      <c r="B269" t="inlineStr">
+        <is>
+          <t>08:30:00</t>
+        </is>
+      </c>
+      <c r="C269" t="n">
+        <v>19563</v>
+      </c>
+      <c r="D269" t="n">
+        <v>8295</v>
+      </c>
+      <c r="E269" t="n">
+        <v>489</v>
+      </c>
+      <c r="F269" t="n">
+        <v>18017</v>
+      </c>
+      <c r="G269" t="n">
+        <v>1057</v>
+      </c>
+    </row>
+    <row r="270">
+      <c r="A270" s="2" t="n">
+        <v>44279</v>
+      </c>
+      <c r="B270" t="inlineStr">
+        <is>
+          <t>11:30:00</t>
+        </is>
+      </c>
+      <c r="C270" t="n">
+        <v>19663</v>
+      </c>
+      <c r="D270" t="n">
+        <v>8339</v>
+      </c>
+      <c r="E270" t="n">
+        <v>490</v>
+      </c>
+      <c r="F270" t="n">
+        <v>18151</v>
+      </c>
+      <c r="G270" t="n">
+        <v>1022</v>
+      </c>
+    </row>
+    <row r="271">
+      <c r="A271" s="2" t="n">
+        <v>44280</v>
+      </c>
+      <c r="B271" t="inlineStr">
+        <is>
+          <t>09:15:00</t>
+        </is>
+      </c>
+      <c r="C271" t="n">
+        <v>19832</v>
+      </c>
+      <c r="D271" t="n">
+        <v>8440</v>
+      </c>
+      <c r="E271" t="n">
+        <v>491</v>
+      </c>
+      <c r="F271" t="n">
+        <v>18252</v>
+      </c>
+      <c r="G271" t="n">
+        <v>1089</v>
+      </c>
+    </row>
+    <row r="272">
+      <c r="A272" s="2" t="n">
+        <v>44281</v>
+      </c>
+      <c r="B272" t="inlineStr">
+        <is>
+          <t>11:00:00</t>
+        </is>
+      </c>
+      <c r="C272" t="n">
+        <v>19939</v>
+      </c>
+      <c r="D272" t="n">
+        <v>8486</v>
+      </c>
+      <c r="E272" t="n">
+        <v>493</v>
+      </c>
+      <c r="F272" t="n">
+        <v>18325</v>
+      </c>
+      <c r="G272" t="n">
+        <v>1121</v>
+      </c>
+    </row>
+    <row r="273">
+      <c r="A273" s="2" t="n">
+        <v>44284</v>
+      </c>
+      <c r="B273" t="inlineStr">
+        <is>
+          <t>11:00:00</t>
+        </is>
+      </c>
+      <c r="C273" t="n">
+        <v>20141</v>
+      </c>
+      <c r="D273" t="n">
+        <v>8557</v>
+      </c>
+      <c r="E273" t="n">
+        <v>493</v>
+      </c>
+      <c r="F273" t="n">
+        <v>18444</v>
+      </c>
+      <c r="G273" t="n">
+        <v>1204</v>
+      </c>
+    </row>
+    <row r="274">
+      <c r="A274" s="2" t="n">
+        <v>44285</v>
+      </c>
+      <c r="B274" t="inlineStr">
+        <is>
+          <t>08:45:00</t>
+        </is>
+      </c>
+      <c r="C274" t="n">
+        <v>20162</v>
+      </c>
+      <c r="D274" t="n">
+        <v>8565</v>
+      </c>
+      <c r="E274" t="n">
+        <v>495</v>
+      </c>
+      <c r="F274" t="n">
+        <v>18593</v>
+      </c>
+      <c r="G274" t="n">
+        <v>1074</v>
+      </c>
+    </row>
+    <row r="275">
+      <c r="A275" s="2" t="n">
+        <v>44286</v>
+      </c>
+      <c r="B275" t="inlineStr">
+        <is>
+          <t>10:30:00</t>
+        </is>
+      </c>
+      <c r="C275" t="n">
+        <v>20247</v>
+      </c>
+      <c r="D275" t="n">
+        <v>8597</v>
+      </c>
+      <c r="E275" t="n">
+        <v>495</v>
+      </c>
+      <c r="F275" t="n">
+        <v>18675</v>
+      </c>
+      <c r="G275" t="n">
+        <v>1077</v>
+      </c>
+    </row>
+    <row r="276">
+      <c r="A276" s="2" t="n">
+        <v>44287</v>
+      </c>
+      <c r="B276" t="inlineStr">
+        <is>
+          <t>12:00:00</t>
+        </is>
+      </c>
+      <c r="C276" t="n">
+        <v>20398</v>
+      </c>
+      <c r="D276" t="n">
+        <v>8670</v>
+      </c>
+      <c r="E276" t="n">
+        <v>495</v>
+      </c>
+      <c r="F276" t="n">
+        <v>18766</v>
+      </c>
+      <c r="G276" t="n">
+        <v>1137</v>
+      </c>
+    </row>
+    <row r="277">
+      <c r="A277" s="2" t="n">
+        <v>44288</v>
+      </c>
+      <c r="B277" t="inlineStr">
+        <is>
+          <t>12:15:00</t>
+        </is>
+      </c>
+      <c r="C277" t="n">
+        <v>20571</v>
+      </c>
+      <c r="D277" t="n">
+        <v>8760</v>
+      </c>
+      <c r="E277" t="n">
+        <v>497</v>
+      </c>
+      <c r="F277" t="n">
+        <v>18804</v>
+      </c>
+      <c r="G277" t="n">
+        <v>1270</v>
+      </c>
+    </row>
+    <row r="278">
+      <c r="A278" s="2" t="n">
+        <v>44292</v>
+      </c>
+      <c r="B278" t="inlineStr">
+        <is>
+          <t>12:15:00</t>
+        </is>
+      </c>
+      <c r="C278" t="n">
+        <v>20818</v>
+      </c>
+      <c r="D278" t="n">
+        <v>8862</v>
+      </c>
+      <c r="E278" t="n">
+        <v>499</v>
+      </c>
+      <c r="F278" t="n">
+        <v>18950</v>
+      </c>
+      <c r="G278" t="n">
+        <v>1369</v>
+      </c>
+    </row>
+    <row r="279">
+      <c r="A279" s="2" t="n">
+        <v>44293</v>
+      </c>
+      <c r="B279" t="inlineStr">
+        <is>
+          <t>11:30:00</t>
+        </is>
+      </c>
+      <c r="C279" t="n">
+        <v>20835</v>
+      </c>
+      <c r="D279" t="n">
+        <v>8868</v>
+      </c>
+      <c r="E279" t="n">
+        <v>499</v>
+      </c>
+      <c r="F279" t="n">
+        <v>18974</v>
+      </c>
+      <c r="G279" t="n">
+        <v>1362</v>
+      </c>
+    </row>
+    <row r="280">
+      <c r="A280" s="2" t="n">
+        <v>44294</v>
+      </c>
+      <c r="B280" t="inlineStr">
+        <is>
+          <t>09:15:00</t>
+        </is>
+      </c>
+      <c r="C280" t="n">
+        <v>21070</v>
+      </c>
+      <c r="D280" t="n">
+        <v>8973</v>
+      </c>
+      <c r="E280" t="n">
+        <v>504</v>
+      </c>
+      <c r="F280" t="n">
+        <v>19035</v>
+      </c>
+      <c r="G280" t="n">
+        <v>1531</v>
+      </c>
+    </row>
+    <row r="281">
+      <c r="A281" s="2" t="n">
+        <v>44295</v>
+      </c>
+      <c r="B281" t="inlineStr">
+        <is>
+          <t>12:00:00</t>
+        </is>
+      </c>
+      <c r="C281" t="n">
+        <v>21163</v>
+      </c>
+      <c r="D281" t="n">
+        <v>9005</v>
+      </c>
+      <c r="E281" t="n">
+        <v>505</v>
+      </c>
+      <c r="F281" t="n">
+        <v>19079</v>
+      </c>
+      <c r="G281" t="n">
+        <v>1579</v>
+      </c>
+    </row>
+    <row r="282">
+      <c r="A282" s="2" t="n">
+        <v>44298</v>
+      </c>
+      <c r="B282" t="inlineStr">
+        <is>
+          <t>11:30:00</t>
+        </is>
+      </c>
+      <c r="C282" t="n">
+        <v>21473</v>
+      </c>
+      <c r="D282" t="n">
+        <v>9133</v>
+      </c>
+      <c r="E282" t="n">
+        <v>505</v>
+      </c>
+      <c r="F282" t="n">
+        <v>19285</v>
+      </c>
+      <c r="G282" t="n">
+        <v>1683</v>
+      </c>
+    </row>
+    <row r="283">
+      <c r="A283" s="2" t="n">
+        <v>44299</v>
+      </c>
+      <c r="B283" t="inlineStr">
+        <is>
+          <t>09:30:00</t>
+        </is>
+      </c>
+      <c r="C283" t="n">
+        <v>21482</v>
+      </c>
+      <c r="D283" t="n">
+        <v>9140</v>
+      </c>
+      <c r="E283" t="n">
+        <v>510</v>
+      </c>
+      <c r="F283" t="n">
+        <v>19309</v>
+      </c>
+      <c r="G283" t="n">
+        <v>1663</v>
+      </c>
+    </row>
+    <row r="284">
+      <c r="A284" s="2" t="n">
+        <v>44300</v>
+      </c>
+      <c r="B284" t="inlineStr">
+        <is>
+          <t>11:15:00</t>
+        </is>
+      </c>
+      <c r="C284" t="n">
+        <v>21688</v>
+      </c>
+      <c r="D284" t="n">
+        <v>9229</v>
+      </c>
+      <c r="E284" t="n">
+        <v>515</v>
+      </c>
+      <c r="F284" t="n">
+        <v>19390</v>
+      </c>
+      <c r="G284" t="n">
+        <v>1783</v>
+      </c>
+    </row>
+    <row r="285">
+      <c r="A285" s="2" t="n">
+        <v>44301</v>
+      </c>
+      <c r="B285" t="inlineStr">
+        <is>
+          <t>09:30:00</t>
+        </is>
+      </c>
+      <c r="C285" t="n">
+        <v>21861</v>
+      </c>
+      <c r="D285" t="n">
+        <v>9298</v>
+      </c>
+      <c r="E285" t="n">
+        <v>516</v>
+      </c>
+      <c r="F285" t="n">
+        <v>19457</v>
+      </c>
+      <c r="G285" t="n">
+        <v>1888</v>
+      </c>
+    </row>
+    <row r="286">
+      <c r="A286" s="2" t="n">
+        <v>44302</v>
+      </c>
+      <c r="B286" t="inlineStr">
+        <is>
+          <t>11:15:00</t>
+        </is>
+      </c>
+      <c r="C286" t="n">
+        <v>21963</v>
+      </c>
+      <c r="D286" t="n">
+        <v>9337</v>
+      </c>
+      <c r="E286" t="n">
+        <v>518</v>
+      </c>
+      <c r="F286" t="n">
+        <v>19544</v>
+      </c>
+      <c r="G286" t="n">
+        <v>1901</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
